--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R206_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R206_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="2">
+      <c r="C12" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -650,10 +662,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -697,28 +709,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="2">
+      <c r="C20" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -743,28 +755,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="2">
+      <c r="I22" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1026,10 +1038,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="2" t="s">
+      <c r="J31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1073,28 +1085,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="2">
+      <c r="A33" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="2">
+      <c r="C33" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1119,28 +1131,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="2">
+      <c r="I35" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1344,10 +1356,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="2" t="s">
+      <c r="J42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1391,28 +1403,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="2">
+      <c r="C44" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1437,28 +1449,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="2">
+      <c r="I46" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1807,10 +1819,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="2" t="s">
+      <c r="J58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1854,28 +1866,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="2">
+      <c r="C60" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1900,28 +1912,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="2">
+      <c r="I62" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2241,10 +2253,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K73" s="2" t="s">
+      <c r="J73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2288,28 +2300,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="2">
+      <c r="A75" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s" s="2">
+      <c r="C75" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2334,28 +2346,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="2">
+      <c r="I77" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2559,10 +2571,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2606,28 +2618,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="2">
+      <c r="C86" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2652,28 +2664,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2906,10 +2918,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K96" s="2" t="s">
+      <c r="J96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K96" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2953,28 +2965,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D98" t="s" s="2">
+      <c r="C98" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2999,28 +3011,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3195,10 +3207,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3242,28 +3254,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="2">
+      <c r="C108" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3288,28 +3300,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3542,10 +3554,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K118" s="2" t="s">
+      <c r="J118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K118" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3589,28 +3601,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="2">
+      <c r="A120" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s" s="2">
+      <c r="C120" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3635,28 +3647,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="C122" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="2">
+      <c r="D122" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="2">
+      <c r="I122" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3918,10 +3930,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="2" t="s">
+      <c r="J131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3965,28 +3977,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="2">
+      <c r="C133" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4011,28 +4023,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4120,10 +4132,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="2" t="s">
+      <c r="J138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4167,28 +4179,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="2">
+      <c r="C140" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4213,28 +4225,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4322,10 +4334,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K145" s="2" t="s">
+      <c r="J145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K145" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4369,28 +4381,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="2">
+      <c r="A147" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s" s="2">
+      <c r="C147" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4415,28 +4427,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="2">
+      <c r="I149" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4524,10 +4536,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="2" t="s">
+      <c r="J152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4571,28 +4583,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="2">
+      <c r="A154" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="2">
+      <c r="C154" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4617,28 +4629,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="2">
+      <c r="I156" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4726,10 +4738,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="2" t="s">
+      <c r="J159" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4773,28 +4785,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="2">
+      <c r="A161" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s" s="2">
+      <c r="C161" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4819,28 +4831,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="2">
+      <c r="I163" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4957,10 +4969,10 @@
       <c r="I167">
         <f>((C167-C166)^2+(D167- D166)^2)^.5</f>
       </c>
-      <c r="J167" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K167" s="2" t="s">
+      <c r="J167" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K167" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L167" t="n">
@@ -5004,28 +5016,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="2">
+      <c r="A169" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C169" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D169" t="s" s="2">
+      <c r="C169" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5050,28 +5062,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="C171" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D171" t="s" s="2">
+      <c r="D171" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I171" t="s" s="2">
+      <c r="I171" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5217,10 +5229,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5264,28 +5276,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5310,28 +5322,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5477,10 +5489,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="2" t="s">
+      <c r="J185" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5524,28 +5536,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="2">
+      <c r="C187" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5570,28 +5582,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5708,10 +5720,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5755,28 +5767,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5801,28 +5813,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5881,10 +5893,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5928,28 +5940,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5974,28 +5986,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6083,10 +6095,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="2" t="s">
+      <c r="J206" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
